--- a/Excel/Test_Data.xlsx
+++ b/Excel/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayan.thakor\Documents\PersonalWorkspace\AMPS_Automation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C996C7-902C-4320-BBC6-590F99BEA03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9645F3-4774-4066-A0AD-88556B6D3538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,10 @@
     <sheet name="AMPSTestCase" sheetId="6" r:id="rId2"/>
     <sheet name="Login" sheetId="5" r:id="rId3"/>
     <sheet name="ProjectInformation" sheetId="1" r:id="rId4"/>
-    <sheet name="ProjectSettingsAndMaintence" sheetId="2" r:id="rId5"/>
-    <sheet name="InterconnectionInformation" sheetId="3" r:id="rId6"/>
-    <sheet name="CountryState" sheetId="4" r:id="rId7"/>
+    <sheet name="ProjectApproval" sheetId="8" r:id="rId5"/>
+    <sheet name="ProjectSettingsAndMaintence" sheetId="2" r:id="rId6"/>
+    <sheet name="InterconnectionInformation" sheetId="3" r:id="rId7"/>
+    <sheet name="CountryState" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
   <si>
     <t>Project Number</t>
   </si>
@@ -183,9 +184,6 @@
     <t>https://uat.geoamps.com/altamps/Login/Login.aspx</t>
   </si>
   <si>
-    <t>https://uat.geoamps.com/dotAMPSOOTB/Login/Login.aspx</t>
-  </si>
-  <si>
     <t>https://uat.geoamps.com/pipe/Login/Login.aspx</t>
   </si>
   <si>
@@ -217,6 +215,66 @@
   </si>
   <si>
     <t>environment</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>ROW</t>
+  </si>
+  <si>
+    <t>ProjectApprovalALT</t>
+  </si>
+  <si>
+    <t>ProjectApprovalDOT</t>
+  </si>
+  <si>
+    <t>ProjectApprovalROW</t>
+  </si>
+  <si>
+    <t>ApprovalType</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>ReportFormat</t>
+  </si>
+  <si>
+    <t>GIS Bulk Processing Document Generation</t>
+  </si>
+  <si>
+    <t>Parcel Summary</t>
+  </si>
+  <si>
+    <t>Adobe PDF</t>
+  </si>
+  <si>
+    <t>DocCategory</t>
+  </si>
+  <si>
+    <t>DocComments</t>
+  </si>
+  <si>
+    <t>ListOfTrack</t>
+  </si>
+  <si>
+    <t>test doc cat</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Walkthrough Project</t>
+  </si>
+  <si>
+    <t>Walkthrough Project-DSPD00001</t>
   </si>
 </sst>
 </file>
@@ -296,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -320,7 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -603,48 +660,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149671E2-C8DC-4CDA-908F-5F50C01E2D9C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -673,15 +742,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -689,7 +758,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
@@ -697,7 +766,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="10">
         <v>3</v>
@@ -705,7 +774,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="10">
         <v>3</v>
@@ -713,7 +782,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="10">
         <v>3</v>
@@ -721,7 +790,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="10">
         <v>3</v>
@@ -734,21 +803,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -758,74 +826,54 @@
       <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>49</v>
+      <c r="B3" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>50</v>
+      <c r="B4" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>51</v>
+      <c r="B5" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -835,7 +883,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,6 +1066,160 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BA6EEA-7D4D-47ED-9928-C295CCDE19DB}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1059,7 +1261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1135,12 +1337,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/Test_Data.xlsx
+++ b/Excel/Test_Data.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayan.thakor\Documents\PersonalWorkspace\AMPS_Automation\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Praful_Personal\GitProject\AMPS_Automation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9645F3-4774-4066-A0AD-88556B6D3538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="7" r:id="rId1"/>
-    <sheet name="AMPSTestCase" sheetId="6" r:id="rId2"/>
-    <sheet name="Login" sheetId="5" r:id="rId3"/>
+    <sheet name="Login" sheetId="5" r:id="rId2"/>
+    <sheet name="AMPSTestCase" sheetId="6" r:id="rId3"/>
     <sheet name="ProjectInformation" sheetId="1" r:id="rId4"/>
     <sheet name="ProjectApproval" sheetId="8" r:id="rId5"/>
     <sheet name="ProjectSettingsAndMaintence" sheetId="2" r:id="rId6"/>
     <sheet name="InterconnectionInformation" sheetId="3" r:id="rId7"/>
     <sheet name="CountryState" sheetId="4" r:id="rId8"/>
+    <sheet name="KeyDate" sheetId="13" r:id="rId9"/>
+    <sheet name="ProjectAssignment" sheetId="10" r:id="rId10"/>
+    <sheet name="ProjectPermit" sheetId="11" r:id="rId11"/>
+    <sheet name="OperatingCompany" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="81">
-  <si>
-    <t>Project Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="129">
   <si>
     <t>Project Name</t>
   </si>
@@ -73,18 +73,9 @@
     <t>SPP</t>
   </si>
   <si>
-    <t>CAISO</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
@@ -275,12 +266,168 @@
   </si>
   <si>
     <t>Walkthrough Project-DSPD00001</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Lessees</t>
+  </si>
+  <si>
+    <t>geoAMPS North LLC</t>
+  </si>
+  <si>
+    <t>SelectUser</t>
+  </si>
+  <si>
+    <t>SelectRole</t>
+  </si>
+  <si>
+    <t>Admin, Business</t>
+  </si>
+  <si>
+    <t>Support, Geo</t>
+  </si>
+  <si>
+    <t>ProjectAssignmentALT</t>
+  </si>
+  <si>
+    <t>ProjectAssignmentDOT</t>
+  </si>
+  <si>
+    <t>ProjectAssignmentROW</t>
+  </si>
+  <si>
+    <t>Database Assistant</t>
+  </si>
+  <si>
+    <t>Accounting User</t>
+  </si>
+  <si>
+    <t>SelectAgent</t>
+  </si>
+  <si>
+    <t>EditAgent</t>
+  </si>
+  <si>
+    <t>EditUser</t>
+  </si>
+  <si>
+    <t>EditRole</t>
+  </si>
+  <si>
+    <t>ProjectPermitALT</t>
+  </si>
+  <si>
+    <t>ProjectPermitDOT</t>
+  </si>
+  <si>
+    <t>ProjectPermitROW</t>
+  </si>
+  <si>
+    <t>Sample RR Agency</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Test Comment ALT</t>
+  </si>
+  <si>
+    <t>Test Comment ROW</t>
+  </si>
+  <si>
+    <t>Sample DOT Agency/Road</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Test Description ALT</t>
+  </si>
+  <si>
+    <t>Test Description ROW</t>
+  </si>
+  <si>
+    <t>AgencyName</t>
+  </si>
+  <si>
+    <t>PermitNumber</t>
+  </si>
+  <si>
+    <t>ProjectSettingsAndMaintenceALT</t>
+  </si>
+  <si>
+    <t>AddKeyALT</t>
+  </si>
+  <si>
+    <t>AddKeyDOT</t>
+  </si>
+  <si>
+    <t>ExpectedDate</t>
+  </si>
+  <si>
+    <t>ActualDate</t>
+  </si>
+  <si>
+    <t>ExpectedEnd</t>
+  </si>
+  <si>
+    <t>ActualEnd</t>
+  </si>
+  <si>
+    <t>EditStateName</t>
+  </si>
+  <si>
+    <t>EditCountryName</t>
+  </si>
+  <si>
+    <t>EditCountryAlias</t>
+  </si>
+  <si>
+    <t>AddCountryStateALT</t>
+  </si>
+  <si>
+    <t>AddCountryStateDOT</t>
+  </si>
+  <si>
+    <t>AddCountryStateROW</t>
+  </si>
+  <si>
+    <t>Route Planning</t>
+  </si>
+  <si>
+    <t>EditInterconnection Grid</t>
+  </si>
+  <si>
+    <t>EditCost</t>
+  </si>
+  <si>
+    <t>AddInterconnectionALT</t>
+  </si>
+  <si>
+    <t>AddInterconnectionDOT</t>
+  </si>
+  <si>
+    <t>AddInterconnectionROW</t>
+  </si>
+  <si>
+    <t>Acquistion Template</t>
+  </si>
+  <si>
+    <t>Contact Log</t>
+  </si>
+  <si>
+    <t>environment1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -379,6 +526,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -659,11 +842,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149671E2-C8DC-4CDA-908F-5F50C01E2D9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,126 +857,191 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{6F3867E7-6D0C-4CDC-8FA1-D5AD6B0DD2BC}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{011F55B3-6A46-4D74-A672-F221EA13CC40}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{6BA0A67A-F4EF-4A6D-B324-E30416CB97EE}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="10">
-        <v>3</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -801,12 +1049,177 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="19" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="21">
+        <v>12345</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="21">
+        <v>45678</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,24 +1231,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -843,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -854,10 +1267,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -865,10 +1278,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -877,68 +1290,139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="43.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="28.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -953,33 +1437,30 @@
         <v>3</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1181</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
@@ -988,74 +1469,83 @@
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1181</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="5">
-        <v>1181</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="I5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1066,17 +1556,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BA6EEA-7D4D-47ED-9928-C295CCDE19DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
@@ -1086,132 +1577,132 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
         <v>73</v>
       </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
         <v>73</v>
       </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
         <v>73</v>
       </c>
-      <c r="E5" t="s">
-        <v>77</v>
-      </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1220,11 +1711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,27 +1725,33 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1262,73 +1759,105 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="1">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
+        <v>90</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1338,78 +1867,230 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="12">
+        <v>44805</v>
+      </c>
+      <c r="C3" s="12">
+        <v>44814</v>
+      </c>
+      <c r="D3" s="12">
+        <v>44854</v>
+      </c>
+      <c r="E3" s="12">
+        <v>44864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="12">
+        <v>44805</v>
+      </c>
+      <c r="C4" s="12">
+        <v>44814</v>
+      </c>
+      <c r="D4" s="12">
+        <v>44854</v>
+      </c>
+      <c r="E4" s="12">
+        <v>44864</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Test_Data.xlsx
+++ b/Excel/Test_Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Praful_Personal\GitProject\AMPS_Automation\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayan.thakor\Documents\PersonalWorkspace\AMPS_Automation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C61EF8E-0A15-42B9-80E7-63EBE8307272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="7" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="134">
   <si>
     <t>Project Name</t>
   </si>
@@ -421,13 +422,28 @@
     <t>Contact Log</t>
   </si>
   <si>
-    <t>environment1</t>
+    <t>environmentALT</t>
+  </si>
+  <si>
+    <t>environmentDOT</t>
+  </si>
+  <si>
+    <t>environmentROW</t>
+  </si>
+  <si>
+    <t>environmentALTROW</t>
+  </si>
+  <si>
+    <t>geoamps sample project</t>
+  </si>
+  <si>
+    <t>geoamps sample project-00005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -533,35 +549,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -842,11 +844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,7 +881,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>55</v>
@@ -890,7 +892,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>46</v>
@@ -899,18 +901,78 @@
         <v>60</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{1B0503A3-F233-4A45-99A9-9CC5C5B78FC1}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{70143AFD-395A-47A0-B51A-BB46AC62809F}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{E68587A7-37AC-4E23-95F2-DF6369CAE736}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{9A539BE9-E873-415A-B532-B7098F76EAA8}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{62845B04-6973-427A-B724-C686F51BCE0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -919,128 +981,127 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="17" t="s">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1050,7 +1111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1060,110 +1121,110 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="19" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="19" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="17">
         <v>12345</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="B4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="17">
         <v>45678</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1173,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1215,7 +1276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1291,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1366,7 +1427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1556,11 +1617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,10 +1734,10 @@
         <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1711,7 +1772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1759,7 +1820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1867,7 +1928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2006,7 +2067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2023,41 +2084,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" t="s">
         <v>108</v>
       </c>
       <c r="B3" s="12">
@@ -2074,7 +2135,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" t="s">
         <v>109</v>
       </c>
       <c r="B4" s="12">

--- a/Excel/Test_Data.xlsx
+++ b/Excel/Test_Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayan.thakor\Documents\PersonalWorkspace\AMPS_Automation\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Praful_Personal\GitProject\AMPS_Automation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C61EF8E-0A15-42B9-80E7-63EBE8307272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="7" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="136">
   <si>
     <t>Project Name</t>
   </si>
@@ -305,12 +304,6 @@
     <t>Accounting User</t>
   </si>
   <si>
-    <t>SelectAgent</t>
-  </si>
-  <si>
-    <t>EditAgent</t>
-  </si>
-  <si>
     <t>EditUser</t>
   </si>
   <si>
@@ -438,12 +431,24 @@
   </si>
   <si>
     <t>geoamps sample project-00005</t>
+  </si>
+  <si>
+    <t>environmentALTDOT</t>
+  </si>
+  <si>
+    <t>environmentDOTROW</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Engineer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -844,11 +849,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +908,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>45</v>
@@ -914,7 +919,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>55</v>
@@ -925,7 +930,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>46</v>
@@ -936,7 +941,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>45</v>
@@ -947,7 +952,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>46</v>
@@ -956,27 +961,75 @@
         <v>60</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{1B0503A3-F233-4A45-99A9-9CC5C5B78FC1}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{70143AFD-395A-47A0-B51A-BB46AC62809F}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{E68587A7-37AC-4E23-95F2-DF6369CAE736}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{9A539BE9-E873-415A-B532-B7098F76EAA8}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{62845B04-6973-427A-B724-C686F51BCE0E}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,13 +1037,11 @@
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1006,14 +1057,8 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1027,16 +1072,10 @@
         <v>89</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -1047,19 +1086,13 @@
         <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" t="s">
         <v>87</v>
       </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -1070,39 +1103,27 @@
         <v>35</v>
       </c>
       <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1153,44 +1174,44 @@
         <v>12</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" s="17">
         <v>12345</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>35</v>
@@ -1210,22 +1231,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" s="17">
         <v>45678</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>73</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1276,11 +1297,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1427,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1597,7 +1618,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>36</v>
@@ -1617,7 +1638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1722,7 +1743,7 @@
         <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
         <v>69</v>
@@ -1734,10 +1755,10 @@
         <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1748,7 +1769,7 @@
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
         <v>69</v>
@@ -1772,7 +1793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1802,7 +1823,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1820,7 +1841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1865,15 +1886,15 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -1890,7 +1911,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -1907,7 +1928,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -1928,7 +1949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1982,18 +2003,18 @@
         <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -2016,7 +2037,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -2039,7 +2060,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -2067,7 +2088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2105,21 +2126,21 @@
         <v>12</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" s="12">
         <v>44805</v>
@@ -2136,7 +2157,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="12">
         <v>44805</v>

--- a/Excel/Test_Data.xlsx
+++ b/Excel/Test_Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Praful_Personal\GitProject\AMPS_Automation\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayan.thakor\Documents\PersonalWorkspace\AMPS_Automation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3DE546-BD57-4C6F-999C-765E6DCEFAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="7" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="138">
   <si>
     <t>Project Name</t>
   </si>
@@ -205,9 +206,6 @@
     <t>https://uat.geoamps.com/dotAMPS/Login/Login.aspx</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
     <t>ENV</t>
   </si>
   <si>
@@ -427,12 +425,6 @@
     <t>environmentALTROW</t>
   </si>
   <si>
-    <t>geoamps sample project</t>
-  </si>
-  <si>
-    <t>geoamps sample project-00005</t>
-  </si>
-  <si>
     <t>environmentALTDOT</t>
   </si>
   <si>
@@ -443,12 +435,27 @@
   </si>
   <si>
     <t>Engineer</t>
+  </si>
+  <si>
+    <t>Document Generation</t>
+  </si>
+  <si>
+    <t>Testing 1</t>
+  </si>
+  <si>
+    <t>Testing 1-123</t>
+  </si>
+  <si>
+    <t>Test project 1</t>
+  </si>
+  <si>
+    <t>Test project 1-00001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -849,186 +856,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="C5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="C9" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="D10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="C11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>60</v>
+      <c r="D14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1063,47 +1167,47 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
-      </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
@@ -1111,19 +1215,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1132,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1174,44 +1278,44 @@
         <v>12</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>104</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="17">
         <v>12345</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>35</v>
@@ -1231,22 +1335,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="17">
         <v>45678</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1280,15 +1384,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1297,11 +1401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B1" sqref="B1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,7 +1477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1448,7 +1552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1618,7 +1722,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>36</v>
@@ -1638,18 +1742,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
@@ -1688,103 +1792,103 @@
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="E2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
       <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>74</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>75</v>
-      </c>
-      <c r="H3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
-        <v>74</v>
-      </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
         <v>73</v>
       </c>
-      <c r="F5" t="s">
-        <v>74</v>
-      </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +1897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1823,7 +1927,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1841,7 +1945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1886,15 +1990,15 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -1911,7 +2015,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -1928,7 +2032,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -1949,7 +2053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2003,18 +2107,18 @@
         <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -2037,7 +2141,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -2060,7 +2164,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -2088,7 +2192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2126,21 +2230,21 @@
         <v>12</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="12">
         <v>44805</v>
@@ -2157,7 +2261,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="12">
         <v>44805</v>

--- a/Excel/Test_Data.xlsx
+++ b/Excel/Test_Data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayan.thakor\Documents\PersonalWorkspace\AMPS_Automation\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Praful_Personal\GitProject\AMPS_Automation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3DE546-BD57-4C6F-999C-765E6DCEFAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="7" r:id="rId1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="152">
   <si>
     <t>Project Name</t>
   </si>
@@ -149,9 +148,6 @@
     <t>180</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>Ft</t>
   </si>
   <si>
@@ -450,12 +446,57 @@
   </si>
   <si>
     <t>Test project 1-00001</t>
+  </si>
+  <si>
+    <t>https://uat.geoamps.com/dotAMPSOOTB/Login/Login.aspx</t>
+  </si>
+  <si>
+    <t>ListOfLeases</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>CLARK</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Geo Support</t>
+  </si>
+  <si>
+    <t>Business Admin</t>
+  </si>
+  <si>
+    <t>Appraiser</t>
+  </si>
+  <si>
+    <t>SelectAgent</t>
+  </si>
+  <si>
+    <t>Na</t>
+  </si>
+  <si>
+    <t>EditAgent</t>
+  </si>
+  <si>
+    <t>150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -856,11 +897,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,262 +931,262 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="2" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -1161,73 +1202,103 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>83</v>
       </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
         <v>131</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1236,11 +1307,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,44 +1349,44 @@
         <v>12</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>103</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="17">
         <v>12345</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>35</v>
@@ -1335,22 +1406,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="17">
         <v>45678</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1359,7 +1430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1384,15 +1455,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1401,7 +1472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1428,13 +1499,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,10 +1513,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1453,10 +1524,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1464,10 +1535,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1477,7 +1548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1492,15 +1563,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -1508,7 +1579,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
@@ -1516,7 +1587,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="10">
         <v>3</v>
@@ -1524,7 +1595,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="10">
         <v>3</v>
@@ -1532,7 +1603,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="10">
         <v>3</v>
@@ -1540,7 +1611,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="10">
         <v>3</v>
@@ -1552,12 +1623,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,13 +1700,13 @@
         <v>27</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1722,16 +1793,16 @@
         <v>35</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1742,11 +1813,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,10 +1829,10 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1786,109 +1857,124 @@
       <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="E2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
         <v>72</v>
       </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>61</v>
       </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
         <v>123</v>
       </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>136</v>
       </c>
-      <c r="H5" t="s">
-        <v>137</v>
+      <c r="I5" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1927,7 +2013,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1945,11 +2031,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,15 +2076,15 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -2015,7 +2101,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -2032,7 +2118,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -2053,11 +2139,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,18 +2193,18 @@
         <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -2130,18 +2216,18 @@
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -2164,7 +2250,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -2176,13 +2262,13 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2192,7 +2278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2230,21 +2316,21 @@
         <v>12</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="12">
         <v>44805</v>
@@ -2261,7 +2347,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="12">
         <v>44805</v>
